--- a/congress_twitter_handles.xlsx
+++ b/congress_twitter_handles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\WM Spring 2022\Cypher VII Senatorial Sentiment\senatorial_sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5874DDE1-EC0A-45B3-B06A-C5840E6D4185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6690436-62C6-452F-91DE-D374EDAFB02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="870" windowWidth="13815" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14115" yWindow="855" windowWidth="13815" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Senate" sheetId="3" r:id="rId1"/>
@@ -3819,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
